--- a/resources/available_colnames_nopLDDT.xlsx
+++ b/resources/available_colnames_nopLDDT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1124">
   <si>
     <t xml:space="preserve">value</t>
   </si>
@@ -3502,14 +3502,14 @@
   <dimension ref="A1:K1113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1045" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1026" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A1045" activeCellId="0" sqref="A1045"/>
-      <selection pane="bottomRight" activeCell="I1068" activeCellId="0" sqref="I1068"/>
+      <selection pane="bottomLeft" activeCell="A1026" activeCellId="0" sqref="A1026"/>
+      <selection pane="bottomRight" activeCell="A1034" activeCellId="0" sqref="A1034"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
@@ -9574,15 +9574,6 @@
       <c r="F1034" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I1034" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1034" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1034" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
@@ -9833,12 +9824,6 @@
         <v>1077</v>
       </c>
       <c r="F1067" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1067" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1067" s="0" t="s">
         <v>13</v>
       </c>
     </row>
